--- a/Code/Results/Cases/Case_5_121/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_121/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.54816684935417</v>
+        <v>10.72688076740759</v>
       </c>
       <c r="C2">
-        <v>6.413112115198484</v>
+        <v>3.963739053596491</v>
       </c>
       <c r="D2">
-        <v>6.447925194187736</v>
+        <v>8.828761819488594</v>
       </c>
       <c r="E2">
-        <v>9.151075534182517</v>
+        <v>13.59623682752078</v>
       </c>
       <c r="F2">
-        <v>23.85389511055258</v>
+        <v>34.8337867893789</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.003073786552876</v>
+        <v>10.19193600088265</v>
       </c>
       <c r="K2">
-        <v>10.92286539430496</v>
+        <v>10.14184448770887</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.23762674024421</v>
+        <v>15.3995089895444</v>
       </c>
       <c r="N2">
-        <v>13.10224055840136</v>
+        <v>20.24264389651791</v>
       </c>
       <c r="O2">
-        <v>17.23409818667169</v>
+        <v>26.46393044682838</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.70580531645343</v>
+        <v>10.50258162370882</v>
       </c>
       <c r="C3">
-        <v>6.081969919859302</v>
+        <v>3.79030017283605</v>
       </c>
       <c r="D3">
-        <v>6.195005703411841</v>
+        <v>8.799366737831663</v>
       </c>
       <c r="E3">
-        <v>8.936814827863483</v>
+        <v>13.59191496506123</v>
       </c>
       <c r="F3">
-        <v>23.5858223846781</v>
+        <v>34.88930835545293</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.005685837289025</v>
+        <v>10.2112871807631</v>
       </c>
       <c r="K3">
-        <v>10.25927654184814</v>
+        <v>9.996660893980611</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>10.79065841697692</v>
+        <v>15.3467258366097</v>
       </c>
       <c r="N3">
-        <v>13.3041072520456</v>
+        <v>20.30316119320692</v>
       </c>
       <c r="O3">
-        <v>17.21455928122704</v>
+        <v>26.53363303243357</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.15804404243807</v>
+        <v>10.36454253975447</v>
       </c>
       <c r="C4">
-        <v>5.86901476062941</v>
+        <v>3.678900705130868</v>
       </c>
       <c r="D4">
-        <v>6.036909903570804</v>
+        <v>8.782682844002618</v>
       </c>
       <c r="E4">
-        <v>8.807357621937825</v>
+        <v>13.59151615728081</v>
       </c>
       <c r="F4">
-        <v>23.43766740616032</v>
+        <v>34.93059362212934</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.009716097935232</v>
+        <v>10.22429469031937</v>
       </c>
       <c r="K4">
-        <v>9.829460698632555</v>
+        <v>9.908205394185815</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>10.5111024911408</v>
+        <v>15.31668049222607</v>
       </c>
       <c r="N4">
-        <v>13.43088074198367</v>
+        <v>20.34205809608637</v>
       </c>
       <c r="O4">
-        <v>17.21505339283331</v>
+        <v>26.58128892995628</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.92710312329253</v>
+        <v>10.30829268747907</v>
       </c>
       <c r="C5">
-        <v>5.779859210889062</v>
+        <v>3.6323079961131</v>
       </c>
       <c r="D5">
-        <v>5.97187748494904</v>
+        <v>8.776232209314111</v>
       </c>
       <c r="E5">
-        <v>8.755193812123954</v>
+        <v>13.59192231188345</v>
       </c>
       <c r="F5">
-        <v>23.38137787596041</v>
+        <v>34.949225018105</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.011956247566782</v>
+        <v>10.22987876008328</v>
       </c>
       <c r="K5">
-        <v>9.648701491037</v>
+        <v>9.872375087786041</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>10.39606413448229</v>
+        <v>15.30504012954249</v>
       </c>
       <c r="N5">
-        <v>13.48327358783405</v>
+        <v>20.35834747052239</v>
       </c>
       <c r="O5">
-        <v>17.21829304147708</v>
+        <v>26.60192932555659</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.88828784823197</v>
+        <v>10.29895501941307</v>
       </c>
       <c r="C6">
-        <v>5.764913187611649</v>
+        <v>3.62450025456351</v>
       </c>
       <c r="D6">
-        <v>5.961045285231561</v>
+        <v>8.775182255342415</v>
       </c>
       <c r="E6">
-        <v>8.746569594784974</v>
+        <v>13.59202414393033</v>
       </c>
       <c r="F6">
-        <v>23.37227608249125</v>
+        <v>34.95242784061854</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.012363966676176</v>
+        <v>10.23082311650926</v>
       </c>
       <c r="K6">
-        <v>9.618348780875197</v>
+        <v>9.866439796619368</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>10.37689994666747</v>
+        <v>15.30314394833782</v>
       </c>
       <c r="N6">
-        <v>13.49201816191203</v>
+        <v>20.36107883485682</v>
       </c>
       <c r="O6">
-        <v>17.21901145859555</v>
+        <v>26.60543030325809</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.15496082100949</v>
+        <v>10.36378381545839</v>
       </c>
       <c r="C7">
-        <v>5.867821921468468</v>
+        <v>3.678277130484823</v>
       </c>
       <c r="D7">
-        <v>6.0360351753142</v>
+        <v>8.782594432334847</v>
       </c>
       <c r="E7">
-        <v>8.806651645928989</v>
+        <v>13.59151933026123</v>
       </c>
       <c r="F7">
-        <v>23.43689180048679</v>
+        <v>34.93083757673993</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.00974390526273</v>
+        <v>10.22436885113644</v>
       </c>
       <c r="K7">
-        <v>9.82704558047678</v>
+        <v>9.907721242636516</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>10.50955532915891</v>
+        <v>15.31652105182465</v>
       </c>
       <c r="N7">
-        <v>13.43158434092843</v>
+        <v>20.34227600284247</v>
       </c>
       <c r="O7">
-        <v>17.21508491861523</v>
+        <v>26.58156235483321</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.26403501583608</v>
+        <v>10.64965721480564</v>
       </c>
       <c r="C8">
-        <v>6.300958763036202</v>
+        <v>3.904976560875141</v>
       </c>
       <c r="D8">
-        <v>6.361355483106601</v>
+        <v>8.818346226665497</v>
       </c>
       <c r="E8">
-        <v>9.076800311205435</v>
+        <v>13.594279736216</v>
       </c>
       <c r="F8">
-        <v>23.75802428773684</v>
+        <v>34.8514363485429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.003463356543269</v>
+        <v>10.19837481503342</v>
       </c>
       <c r="K8">
-        <v>10.69871083060681</v>
+        <v>10.09166828091744</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.08466960554961</v>
+        <v>15.38082432969454</v>
       </c>
       <c r="N8">
-        <v>13.17127041113612</v>
+        <v>20.26315009451844</v>
       </c>
       <c r="O8">
-        <v>17.22470735172444</v>
+        <v>26.4869547542282</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.19850439070077</v>
+        <v>11.20423407606156</v>
       </c>
       <c r="C9">
-        <v>7.072339579834121</v>
+        <v>4.309226284384185</v>
       </c>
       <c r="D9">
-        <v>6.973316939200207</v>
+        <v>8.899050801489091</v>
       </c>
       <c r="E9">
-        <v>9.620506097753868</v>
+        <v>13.6175010819387</v>
       </c>
       <c r="F9">
-        <v>24.51994009930735</v>
+        <v>34.75288567505802</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.010957944170374</v>
+        <v>10.15631957874148</v>
       </c>
       <c r="K9">
-        <v>12.23025995991823</v>
+        <v>10.455957063392</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12.16539462526026</v>
+        <v>15.52525845548938</v>
       </c>
       <c r="N9">
-        <v>12.68222556981723</v>
+        <v>20.12172366107787</v>
       </c>
       <c r="O9">
-        <v>17.34719195596034</v>
+        <v>26.34003751757073</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.47598791301738</v>
+        <v>11.60354828633749</v>
       </c>
       <c r="C10">
-        <v>7.590044780930212</v>
+        <v>4.580156980640028</v>
       </c>
       <c r="D10">
-        <v>7.402778862132381</v>
+        <v>8.96447079527619</v>
       </c>
       <c r="E10">
-        <v>10.02499434597192</v>
+        <v>13.64529332349841</v>
       </c>
       <c r="F10">
-        <v>25.16198970832255</v>
+        <v>34.71539096037279</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.029314309682035</v>
+        <v>10.13084010677883</v>
       </c>
       <c r="K10">
-        <v>13.24736637484441</v>
+        <v>10.72327486676924</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>12.92333698544454</v>
+        <v>15.64195538442661</v>
       </c>
       <c r="N10">
-        <v>12.33451757575555</v>
+        <v>20.02610902314032</v>
       </c>
       <c r="O10">
-        <v>17.50635644749496</v>
+        <v>26.2557115554231</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.02655502895603</v>
+        <v>11.78256805715212</v>
       </c>
       <c r="C11">
-        <v>7.814751508237793</v>
+        <v>4.697513649901563</v>
       </c>
       <c r="D11">
-        <v>7.593065313397861</v>
+        <v>8.995485210240615</v>
       </c>
       <c r="E11">
-        <v>10.20942785917871</v>
+        <v>13.66023501527034</v>
       </c>
       <c r="F11">
-        <v>25.47213182868832</v>
+        <v>34.70591804519916</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.040623391708035</v>
+        <v>10.1204213131959</v>
       </c>
       <c r="K11">
-        <v>13.68679569652932</v>
+        <v>10.84429882644513</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13.25910825218926</v>
+        <v>15.69720354020913</v>
       </c>
       <c r="N11">
-        <v>12.17850902351358</v>
+        <v>19.98439380994133</v>
       </c>
       <c r="O11">
-        <v>17.59501914958572</v>
+        <v>26.22249148375045</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.23069696065808</v>
+        <v>11.84991279533181</v>
       </c>
       <c r="C12">
-        <v>7.898282639932316</v>
+        <v>4.741091074227562</v>
       </c>
       <c r="D12">
-        <v>7.664344200010786</v>
+        <v>9.007403007657302</v>
       </c>
       <c r="E12">
-        <v>10.27927941270151</v>
+        <v>13.6662204374827</v>
       </c>
       <c r="F12">
-        <v>25.59217852065927</v>
+        <v>34.70342071162595</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.045345200127569</v>
+        <v>10.11664416910625</v>
       </c>
       <c r="K12">
-        <v>13.84987418832849</v>
+        <v>10.89000250858788</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>13.38487979696197</v>
+        <v>15.71842307974655</v>
       </c>
       <c r="N12">
-        <v>12.1197141330345</v>
+        <v>19.96885202963475</v>
       </c>
       <c r="O12">
-        <v>17.63102816588153</v>
+        <v>26.210652042093</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.18692382182613</v>
+        <v>11.83542977930713</v>
       </c>
       <c r="C13">
-        <v>7.880362181433824</v>
+        <v>4.731744501398332</v>
       </c>
       <c r="D13">
-        <v>7.649028319673616</v>
+        <v>9.004828704136758</v>
       </c>
       <c r="E13">
-        <v>10.26423592280357</v>
+        <v>13.66491686625289</v>
       </c>
       <c r="F13">
-        <v>25.56620854315576</v>
+        <v>34.70391010226236</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.04430851355982</v>
+        <v>10.11745016756501</v>
       </c>
       <c r="K13">
-        <v>13.81489976989661</v>
+        <v>10.88016563671549</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13.35785504733384</v>
+        <v>15.71384001287363</v>
       </c>
       <c r="N13">
-        <v>12.13236460019519</v>
+        <v>19.97218791306409</v>
       </c>
       <c r="O13">
-        <v>17.6231632060254</v>
+        <v>26.21316893728546</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.04343671724062</v>
+        <v>11.78811786461989</v>
       </c>
       <c r="C14">
-        <v>7.821654962638084</v>
+        <v>4.701116167576213</v>
       </c>
       <c r="D14">
-        <v>7.59894531895086</v>
+        <v>8.996462262657227</v>
       </c>
       <c r="E14">
-        <v>10.21517465217818</v>
+        <v>13.66072089896251</v>
       </c>
       <c r="F14">
-        <v>25.48195597316485</v>
+        <v>34.70569075162065</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.041002973443276</v>
+        <v>10.12010719549654</v>
       </c>
       <c r="K14">
-        <v>13.70027874293444</v>
+        <v>10.84806164597024</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.26948357432322</v>
+        <v>15.69894338084717</v>
       </c>
       <c r="N14">
-        <v>12.17366645138653</v>
+        <v>19.98311007697813</v>
       </c>
       <c r="O14">
-        <v>17.59793230251412</v>
+        <v>26.22150260356739</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.95498225679654</v>
+        <v>11.75907790561414</v>
       </c>
       <c r="C15">
-        <v>7.785491748190738</v>
+        <v>4.682242617759473</v>
       </c>
       <c r="D15">
-        <v>7.568165364983614</v>
+        <v>8.991359931379534</v>
       </c>
       <c r="E15">
-        <v>10.1851231497598</v>
+        <v>13.65819327468698</v>
       </c>
       <c r="F15">
-        <v>25.43068782814522</v>
+        <v>34.70692335237804</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.039035859174875</v>
+        <v>10.12175660095209</v>
       </c>
       <c r="K15">
-        <v>13.62963787994022</v>
+        <v>10.82837946268008</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.21517193192633</v>
+        <v>15.68985722341057</v>
       </c>
       <c r="N15">
-        <v>12.19900087550537</v>
+        <v>19.98983337485806</v>
       </c>
       <c r="O15">
-        <v>17.58279748561965</v>
+        <v>26.22670365172017</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.43939618045028</v>
+        <v>11.59179008875745</v>
       </c>
       <c r="C16">
-        <v>7.575141594935701</v>
+        <v>4.572367480890123</v>
       </c>
       <c r="D16">
-        <v>7.390236697734571</v>
+        <v>8.962468574458061</v>
       </c>
       <c r="E16">
-        <v>10.01294534125847</v>
+        <v>13.64436283645858</v>
       </c>
       <c r="F16">
-        <v>25.14208526493142</v>
+        <v>34.71616259613874</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.028635950785213</v>
+        <v>10.13154455676858</v>
       </c>
       <c r="K16">
-        <v>13.21818228255367</v>
+        <v>10.7153503655868</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>12.90120479679917</v>
+        <v>15.63838722367265</v>
       </c>
       <c r="N16">
-        <v>12.34475421844609</v>
+        <v>20.02887093748389</v>
       </c>
       <c r="O16">
-        <v>17.5008976011759</v>
+        <v>26.25798609873907</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.11530676932454</v>
+        <v>11.48844104139117</v>
       </c>
       <c r="C17">
-        <v>7.443325543997636</v>
+        <v>4.503441585041039</v>
       </c>
       <c r="D17">
-        <v>7.279745632453897</v>
+        <v>8.945061015126694</v>
       </c>
       <c r="E17">
-        <v>9.907391943639892</v>
+        <v>13.63646488031498</v>
       </c>
       <c r="F17">
-        <v>24.96966958973979</v>
+        <v>34.72377263248593</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.02302353390766</v>
+        <v>10.13784910530718</v>
       </c>
       <c r="K17">
-        <v>12.95982388878214</v>
+        <v>10.64583171712846</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>12.70622363843664</v>
+        <v>15.60735695874916</v>
       </c>
       <c r="N17">
-        <v>12.43470356821192</v>
+        <v>20.05327439122058</v>
       </c>
       <c r="O17">
-        <v>17.45488834622997</v>
+        <v>26.27849424431241</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.92601898978249</v>
+        <v>11.42875362001473</v>
       </c>
       <c r="C18">
-        <v>7.366491987836232</v>
+        <v>4.463243489770009</v>
       </c>
       <c r="D18">
-        <v>7.215718467371825</v>
+        <v>8.935167170673532</v>
       </c>
       <c r="E18">
-        <v>9.846723647788563</v>
+        <v>13.63213877595424</v>
       </c>
       <c r="F18">
-        <v>24.87220164357669</v>
+        <v>34.72886360613163</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.020073067616534</v>
+        <v>10.14158564233409</v>
       </c>
       <c r="K18">
-        <v>12.80903231737999</v>
+        <v>10.60579424414634</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>12.59323041203015</v>
+        <v>15.58971346744294</v>
       </c>
       <c r="N18">
-        <v>12.48664574008132</v>
+        <v>20.06747825672864</v>
       </c>
       <c r="O18">
-        <v>17.42994973680854</v>
+        <v>26.29077375187997</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.86143325170662</v>
+        <v>11.40850475611762</v>
       </c>
       <c r="C19">
-        <v>7.340303199619728</v>
+        <v>4.449538530390309</v>
       </c>
       <c r="D19">
-        <v>7.193959887992429</v>
+        <v>8.931837853289174</v>
       </c>
       <c r="E19">
-        <v>9.826191469186794</v>
+        <v>13.63071132557144</v>
       </c>
       <c r="F19">
-        <v>24.83949262067361</v>
+        <v>34.73070994295995</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.019121357387497</v>
+        <v>10.1428697273335</v>
       </c>
       <c r="K19">
-        <v>12.75760008732289</v>
+        <v>10.59223058435555</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>12.55483038072035</v>
+        <v>15.58377515089673</v>
       </c>
       <c r="N19">
-        <v>12.50426865608507</v>
+        <v>20.07231626980418</v>
       </c>
       <c r="O19">
-        <v>17.42176483064851</v>
+        <v>26.29501443281083</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.15010436801376</v>
+        <v>11.49946846048265</v>
       </c>
       <c r="C20">
-        <v>7.457462856131437</v>
+        <v>4.510836298617345</v>
       </c>
       <c r="D20">
-        <v>7.291557196568673</v>
+        <v>8.946901863384788</v>
       </c>
       <c r="E20">
-        <v>9.91862419574546</v>
+        <v>13.63728323752571</v>
       </c>
       <c r="F20">
-        <v>24.98784744358058</v>
+        <v>34.72288864995502</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.023592150038877</v>
+        <v>10.13716655900162</v>
       </c>
       <c r="K20">
-        <v>12.98755317162776</v>
+        <v>10.65323780581659</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>12.72706782385018</v>
+        <v>15.61063912979161</v>
       </c>
       <c r="N20">
-        <v>12.42510722499705</v>
+        <v>20.05065925969363</v>
       </c>
       <c r="O20">
-        <v>17.45962760102979</v>
+        <v>26.27626104081032</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.08569990152067</v>
+        <v>11.80202714924935</v>
       </c>
       <c r="C21">
-        <v>7.838941079635546</v>
+        <v>4.71013598581712</v>
       </c>
       <c r="D21">
-        <v>7.613677381249824</v>
+        <v>8.998915043406388</v>
       </c>
       <c r="E21">
-        <v>10.22958523301456</v>
+        <v>13.66194449987866</v>
       </c>
       <c r="F21">
-        <v>25.50663234881442</v>
+        <v>34.70513816156951</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.04196185684086</v>
+        <v>10.11932219877144</v>
       </c>
       <c r="K21">
-        <v>13.73403573858004</v>
+        <v>10.85749509910929</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>13.29547837912783</v>
+        <v>15.70331089094392</v>
       </c>
       <c r="N21">
-        <v>12.16152768062819</v>
+        <v>19.97989506480246</v>
       </c>
       <c r="O21">
-        <v>17.60527640816106</v>
+        <v>26.21903470460352</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.67185864791196</v>
+        <v>11.99713775677318</v>
       </c>
       <c r="C22">
-        <v>8.079163766468204</v>
+        <v>4.83535416869263</v>
       </c>
       <c r="D22">
-        <v>7.81964738137104</v>
+        <v>9.033915399823227</v>
       </c>
       <c r="E22">
-        <v>10.43285777183632</v>
+        <v>13.6799682838295</v>
       </c>
       <c r="F22">
-        <v>25.86085770508828</v>
+        <v>34.69988897490124</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.056534687139195</v>
+        <v>10.10864028853763</v>
       </c>
       <c r="K22">
-        <v>14.20254401489873</v>
+        <v>10.99023930195388</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13.68375421698326</v>
+        <v>15.76560958579149</v>
       </c>
       <c r="N22">
-        <v>11.99089299398907</v>
+        <v>19.93513159891778</v>
       </c>
       <c r="O22">
-        <v>17.71469836840322</v>
+        <v>26.1859493137072</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.36131350576135</v>
+        <v>11.89326541309087</v>
       </c>
       <c r="C23">
-        <v>7.951785800903501</v>
+        <v>4.768988169714834</v>
       </c>
       <c r="D23">
-        <v>7.710147860264824</v>
+        <v>9.015145338402807</v>
       </c>
       <c r="E23">
-        <v>10.32437921460019</v>
+        <v>13.67017537276748</v>
       </c>
       <c r="F23">
-        <v>25.67041255907409</v>
+        <v>34.70210974489471</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.048517373211745</v>
+        <v>10.11425181806766</v>
       </c>
       <c r="K23">
-        <v>13.95425590883207</v>
+        <v>10.91947332780525</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>13.46569975059323</v>
+        <v>15.73220537699982</v>
       </c>
       <c r="N23">
-        <v>12.08182494601976</v>
+        <v>19.95888719990926</v>
       </c>
       <c r="O23">
-        <v>17.65496447282117</v>
+        <v>26.20321242371322</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.13438161100859</v>
+        <v>11.49448380219082</v>
       </c>
       <c r="C24">
-        <v>7.451074649557824</v>
+        <v>4.507494928053963</v>
       </c>
       <c r="D24">
-        <v>7.286218755710299</v>
+        <v>8.946069260285974</v>
       </c>
       <c r="E24">
-        <v>9.913546041538254</v>
+        <v>13.63691258974044</v>
       </c>
       <c r="F24">
-        <v>24.97962407774689</v>
+        <v>34.72328606854605</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.023334219471523</v>
+        <v>10.13747478939421</v>
       </c>
       <c r="K24">
-        <v>12.97502379717695</v>
+        <v>10.64988972879181</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>12.71764695206511</v>
+        <v>15.60915464809843</v>
       </c>
       <c r="N24">
-        <v>12.42944501600232</v>
+        <v>20.05184101857312</v>
       </c>
       <c r="O24">
-        <v>17.45748027948189</v>
+        <v>26.27726914866744</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.7006335726774</v>
+        <v>11.05532522304545</v>
       </c>
       <c r="C25">
-        <v>6.872193149944178</v>
+        <v>4.204352550518693</v>
       </c>
       <c r="D25">
-        <v>6.811030138492642</v>
+        <v>8.876116895507717</v>
       </c>
       <c r="E25">
-        <v>9.472295659523159</v>
+        <v>13.609324425221</v>
       </c>
       <c r="F25">
-        <v>24.29946127342563</v>
+        <v>34.77341839042774</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.006730086476433</v>
+        <v>10.16674370238564</v>
       </c>
       <c r="K25">
-        <v>11.83496985128379</v>
+        <v>10.35728600780902</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>11.87889893796811</v>
+        <v>15.48428168940532</v>
       </c>
       <c r="N25">
-        <v>12.81237811556836</v>
+        <v>20.15852114709146</v>
       </c>
       <c r="O25">
-        <v>17.30233428441263</v>
+        <v>26.37564078331037</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_121/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_121/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.72688076740759</v>
+        <v>12.54816684935426</v>
       </c>
       <c r="C2">
-        <v>3.963739053596491</v>
+        <v>6.413112115198404</v>
       </c>
       <c r="D2">
-        <v>8.828761819488594</v>
+        <v>6.447925194187756</v>
       </c>
       <c r="E2">
-        <v>13.59623682752078</v>
+        <v>9.151075534182478</v>
       </c>
       <c r="F2">
-        <v>34.8337867893789</v>
+        <v>23.85389511055246</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.19193600088265</v>
+        <v>6.003073786552819</v>
       </c>
       <c r="K2">
-        <v>10.14184448770887</v>
+        <v>10.92286539430502</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.3995089895444</v>
+        <v>11.23762674024417</v>
       </c>
       <c r="N2">
-        <v>20.24264389651791</v>
+        <v>13.10224055840133</v>
       </c>
       <c r="O2">
-        <v>26.46393044682838</v>
+        <v>17.23409818667157</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.50258162370882</v>
+        <v>11.70580531645346</v>
       </c>
       <c r="C3">
-        <v>3.79030017283605</v>
+        <v>6.081969919859223</v>
       </c>
       <c r="D3">
-        <v>8.799366737831663</v>
+        <v>6.195005703411926</v>
       </c>
       <c r="E3">
-        <v>13.59191496506123</v>
+        <v>8.936814827863524</v>
       </c>
       <c r="F3">
-        <v>34.88930835545293</v>
+        <v>23.58582238467822</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.2112871807631</v>
+        <v>6.005685837289024</v>
       </c>
       <c r="K3">
-        <v>9.996660893980611</v>
+        <v>10.25927654184818</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.3467258366097</v>
+        <v>10.79065841697696</v>
       </c>
       <c r="N3">
-        <v>20.30316119320692</v>
+        <v>13.30410725204563</v>
       </c>
       <c r="O3">
-        <v>26.53363303243357</v>
+        <v>17.2145592812271</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.36454253975447</v>
+        <v>11.15804404243806</v>
       </c>
       <c r="C4">
-        <v>3.678900705130868</v>
+        <v>5.869014760629465</v>
       </c>
       <c r="D4">
-        <v>8.782682844002618</v>
+        <v>6.036909903570888</v>
       </c>
       <c r="E4">
-        <v>13.59151615728081</v>
+        <v>8.807357621937834</v>
       </c>
       <c r="F4">
-        <v>34.93059362212934</v>
+        <v>23.43766740616038</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.22429469031937</v>
+        <v>6.009716097935176</v>
       </c>
       <c r="K4">
-        <v>9.908205394185815</v>
+        <v>9.829460698632547</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.31668049222607</v>
+        <v>10.5111024911408</v>
       </c>
       <c r="N4">
-        <v>20.34205809608637</v>
+        <v>13.43088074198368</v>
       </c>
       <c r="O4">
-        <v>26.58128892995628</v>
+        <v>17.21505339283331</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.30829268747907</v>
+        <v>10.92710312329261</v>
       </c>
       <c r="C5">
-        <v>3.6323079961131</v>
+        <v>5.779859210888992</v>
       </c>
       <c r="D5">
-        <v>8.776232209314111</v>
+        <v>5.971877484948938</v>
       </c>
       <c r="E5">
-        <v>13.59192231188345</v>
+        <v>8.755193812123817</v>
       </c>
       <c r="F5">
-        <v>34.949225018105</v>
+        <v>23.38137787596006</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.22987876008328</v>
+        <v>6.01195624756678</v>
       </c>
       <c r="K5">
-        <v>9.872375087786041</v>
+        <v>9.648701491037054</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.30504012954249</v>
+        <v>10.39606413448222</v>
       </c>
       <c r="N5">
-        <v>20.35834747052239</v>
+        <v>13.48327358783388</v>
       </c>
       <c r="O5">
-        <v>26.60192932555659</v>
+        <v>17.21829304147685</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.29895501941307</v>
+        <v>10.88828784823193</v>
       </c>
       <c r="C6">
-        <v>3.62450025456351</v>
+        <v>5.764913187611662</v>
       </c>
       <c r="D6">
-        <v>8.775182255342415</v>
+        <v>5.961045285231505</v>
       </c>
       <c r="E6">
-        <v>13.59202414393033</v>
+        <v>8.74656959478502</v>
       </c>
       <c r="F6">
-        <v>34.95242784061854</v>
+        <v>23.37227608249132</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.23082311650926</v>
+        <v>6.012363966676207</v>
       </c>
       <c r="K6">
-        <v>9.866439796619368</v>
+        <v>9.618348780875188</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.30314394833782</v>
+        <v>10.37689994666751</v>
       </c>
       <c r="N6">
-        <v>20.36107883485682</v>
+        <v>13.49201816191207</v>
       </c>
       <c r="O6">
-        <v>26.60543030325809</v>
+        <v>17.21901145859565</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.36378381545839</v>
+        <v>11.15496082100951</v>
       </c>
       <c r="C7">
-        <v>3.678277130484823</v>
+        <v>5.867821921468495</v>
       </c>
       <c r="D7">
-        <v>8.782594432334847</v>
+        <v>6.036035175314205</v>
       </c>
       <c r="E7">
-        <v>13.59151933026123</v>
+        <v>8.806651645928936</v>
       </c>
       <c r="F7">
-        <v>34.93083757673993</v>
+        <v>23.43689180048713</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.22436885113644</v>
+        <v>6.009743905262672</v>
       </c>
       <c r="K7">
-        <v>9.907721242636516</v>
+        <v>9.827045580476794</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.31652105182465</v>
+        <v>10.50955532915888</v>
       </c>
       <c r="N7">
-        <v>20.34227600284247</v>
+        <v>13.43158434092863</v>
       </c>
       <c r="O7">
-        <v>26.58156235483321</v>
+        <v>17.21508491861552</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.64965721480564</v>
+        <v>12.26403501583613</v>
       </c>
       <c r="C8">
-        <v>3.904976560875141</v>
+        <v>6.300958763036202</v>
       </c>
       <c r="D8">
-        <v>8.818346226665497</v>
+        <v>6.361355483106595</v>
       </c>
       <c r="E8">
-        <v>13.594279736216</v>
+        <v>9.076800311205437</v>
       </c>
       <c r="F8">
-        <v>34.8514363485429</v>
+        <v>23.7580242877367</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.19837481503342</v>
+        <v>6.00346335654333</v>
       </c>
       <c r="K8">
-        <v>10.09166828091744</v>
+        <v>10.69871083060682</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.38082432969454</v>
+        <v>11.08466960554962</v>
       </c>
       <c r="N8">
-        <v>20.26315009451844</v>
+        <v>13.17127041113608</v>
       </c>
       <c r="O8">
-        <v>26.4869547542282</v>
+        <v>17.22470735172436</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.20423407606156</v>
+        <v>14.19850439070072</v>
       </c>
       <c r="C9">
-        <v>4.309226284384185</v>
+        <v>7.072339579834354</v>
       </c>
       <c r="D9">
-        <v>8.899050801489091</v>
+        <v>6.97331693920015</v>
       </c>
       <c r="E9">
-        <v>13.6175010819387</v>
+        <v>9.620506097753793</v>
       </c>
       <c r="F9">
-        <v>34.75288567505802</v>
+        <v>24.51994009930728</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.15631957874148</v>
+        <v>6.010957944170378</v>
       </c>
       <c r="K9">
-        <v>10.455957063392</v>
+        <v>12.23025995991826</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.52525845548938</v>
+        <v>12.16539462526022</v>
       </c>
       <c r="N9">
-        <v>20.12172366107787</v>
+        <v>12.68222556981723</v>
       </c>
       <c r="O9">
-        <v>26.34003751757073</v>
+        <v>17.34719195596033</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.60354828633749</v>
+        <v>15.47598791301731</v>
       </c>
       <c r="C10">
-        <v>4.580156980640028</v>
+        <v>7.590044780930297</v>
       </c>
       <c r="D10">
-        <v>8.96447079527619</v>
+        <v>7.402778862132406</v>
       </c>
       <c r="E10">
-        <v>13.64529332349841</v>
+        <v>10.02499434597201</v>
       </c>
       <c r="F10">
-        <v>34.71539096037279</v>
+        <v>25.16198970832252</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.13084010677883</v>
+        <v>6.029314309682113</v>
       </c>
       <c r="K10">
-        <v>10.72327486676924</v>
+        <v>13.2473663748444</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.64195538442661</v>
+        <v>12.92333698544456</v>
       </c>
       <c r="N10">
-        <v>20.02610902314032</v>
+        <v>12.33451757575555</v>
       </c>
       <c r="O10">
-        <v>26.2557115554231</v>
+        <v>17.50635644749494</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.78256805715212</v>
+        <v>16.02655502895601</v>
       </c>
       <c r="C11">
-        <v>4.697513649901563</v>
+        <v>7.814751508237946</v>
       </c>
       <c r="D11">
-        <v>8.995485210240615</v>
+        <v>7.593065313397846</v>
       </c>
       <c r="E11">
-        <v>13.66023501527034</v>
+        <v>10.20942785917874</v>
       </c>
       <c r="F11">
-        <v>34.70591804519916</v>
+        <v>25.47213182868828</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.1204213131959</v>
+        <v>6.040623391708104</v>
       </c>
       <c r="K11">
-        <v>10.84429882644513</v>
+        <v>13.68679569652931</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.69720354020913</v>
+        <v>13.25910825218926</v>
       </c>
       <c r="N11">
-        <v>19.98439380994133</v>
+        <v>12.17850902351358</v>
       </c>
       <c r="O11">
-        <v>26.22249148375045</v>
+        <v>17.59501914958571</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.84991279533181</v>
+        <v>16.23069696065812</v>
       </c>
       <c r="C12">
-        <v>4.741091074227562</v>
+        <v>7.89828263993236</v>
       </c>
       <c r="D12">
-        <v>9.007403007657302</v>
+        <v>7.664344200010762</v>
       </c>
       <c r="E12">
-        <v>13.6662204374827</v>
+        <v>10.27927941270152</v>
       </c>
       <c r="F12">
-        <v>34.70342071162595</v>
+        <v>25.59217852065913</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.11664416910625</v>
+        <v>6.04534520012759</v>
       </c>
       <c r="K12">
-        <v>10.89000250858788</v>
+        <v>13.84987418832856</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.71842307974655</v>
+        <v>13.38487979696196</v>
       </c>
       <c r="N12">
-        <v>19.96885202963475</v>
+        <v>12.1197141330344</v>
       </c>
       <c r="O12">
-        <v>26.210652042093</v>
+        <v>17.63102816588138</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.83542977930713</v>
+        <v>16.18692382182618</v>
       </c>
       <c r="C13">
-        <v>4.731744501398332</v>
+        <v>7.880362181433667</v>
       </c>
       <c r="D13">
-        <v>9.004828704136758</v>
+        <v>7.649028319673621</v>
       </c>
       <c r="E13">
-        <v>13.66491686625289</v>
+        <v>10.26423592280358</v>
       </c>
       <c r="F13">
-        <v>34.70391010226236</v>
+        <v>25.5662085431556</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.11745016756501</v>
+        <v>6.044308513559801</v>
       </c>
       <c r="K13">
-        <v>10.88016563671549</v>
+        <v>13.81489976989663</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.71384001287363</v>
+        <v>13.35785504733384</v>
       </c>
       <c r="N13">
-        <v>19.97218791306409</v>
+        <v>12.13236460019509</v>
       </c>
       <c r="O13">
-        <v>26.21316893728546</v>
+        <v>17.62316320602524</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.78811786461989</v>
+        <v>16.04343671724066</v>
       </c>
       <c r="C14">
-        <v>4.701116167576213</v>
+        <v>7.821654962638124</v>
       </c>
       <c r="D14">
-        <v>8.996462262657227</v>
+        <v>7.598945318950791</v>
       </c>
       <c r="E14">
-        <v>13.66072089896251</v>
+        <v>10.21517465217808</v>
       </c>
       <c r="F14">
-        <v>34.70569075162065</v>
+        <v>25.48195597316479</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.12010719549654</v>
+        <v>6.041002973443257</v>
       </c>
       <c r="K14">
-        <v>10.84806164597024</v>
+        <v>13.70027874293452</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.69894338084717</v>
+        <v>13.26948357432319</v>
       </c>
       <c r="N14">
-        <v>19.98311007697813</v>
+        <v>12.17366645138656</v>
       </c>
       <c r="O14">
-        <v>26.22150260356739</v>
+        <v>17.59793230251409</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.75907790561414</v>
+        <v>15.95498225679651</v>
       </c>
       <c r="C15">
-        <v>4.682242617759473</v>
+        <v>7.785491748190768</v>
       </c>
       <c r="D15">
-        <v>8.991359931379534</v>
+        <v>7.56816536498363</v>
       </c>
       <c r="E15">
-        <v>13.65819327468698</v>
+        <v>10.1851231497598</v>
       </c>
       <c r="F15">
-        <v>34.70692335237804</v>
+        <v>25.43068782814528</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.12175660095209</v>
+        <v>6.039035859174822</v>
       </c>
       <c r="K15">
-        <v>10.82837946268008</v>
+        <v>13.62963787994019</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.68985722341057</v>
+        <v>13.21517193192635</v>
       </c>
       <c r="N15">
-        <v>19.98983337485806</v>
+        <v>12.19900087550537</v>
       </c>
       <c r="O15">
-        <v>26.22670365172017</v>
+        <v>17.5827974856197</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.59179008875745</v>
+        <v>15.43939618045027</v>
       </c>
       <c r="C16">
-        <v>4.572367480890123</v>
+        <v>7.5751415949357</v>
       </c>
       <c r="D16">
-        <v>8.962468574458061</v>
+        <v>7.390236697734477</v>
       </c>
       <c r="E16">
-        <v>13.64436283645858</v>
+        <v>10.01294534125838</v>
       </c>
       <c r="F16">
-        <v>34.71616259613874</v>
+        <v>25.14208526493126</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.13154455676858</v>
+        <v>6.028635950785242</v>
       </c>
       <c r="K16">
-        <v>10.7153503655868</v>
+        <v>13.21818228255368</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.63838722367265</v>
+        <v>12.90120479679915</v>
       </c>
       <c r="N16">
-        <v>20.02887093748389</v>
+        <v>12.34475421844602</v>
       </c>
       <c r="O16">
-        <v>26.25798609873907</v>
+        <v>17.50089760117582</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.48844104139117</v>
+        <v>15.11530676932454</v>
       </c>
       <c r="C17">
-        <v>4.503441585041039</v>
+        <v>7.443325543997722</v>
       </c>
       <c r="D17">
-        <v>8.945061015126694</v>
+        <v>7.279745632453949</v>
       </c>
       <c r="E17">
-        <v>13.63646488031498</v>
+        <v>9.907391943639889</v>
       </c>
       <c r="F17">
-        <v>34.72377263248593</v>
+        <v>24.96966958973979</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.13784910530718</v>
+        <v>6.023023533907634</v>
       </c>
       <c r="K17">
-        <v>10.64583171712846</v>
+        <v>12.95982388878217</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.60735695874916</v>
+        <v>12.70622363843663</v>
       </c>
       <c r="N17">
-        <v>20.05327439122058</v>
+        <v>12.43470356821192</v>
       </c>
       <c r="O17">
-        <v>26.27849424431241</v>
+        <v>17.45488834622995</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.42875362001473</v>
+        <v>14.92601898978247</v>
       </c>
       <c r="C18">
-        <v>4.463243489770009</v>
+        <v>7.366491987836262</v>
       </c>
       <c r="D18">
-        <v>8.935167170673532</v>
+        <v>7.215718467371805</v>
       </c>
       <c r="E18">
-        <v>13.63213877595424</v>
+        <v>9.846723647788536</v>
       </c>
       <c r="F18">
-        <v>34.72886360613163</v>
+        <v>24.87220164357665</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.14158564233409</v>
+        <v>6.020073067616504</v>
       </c>
       <c r="K18">
-        <v>10.60579424414634</v>
+        <v>12.80903231737999</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.58971346744294</v>
+        <v>12.59323041203014</v>
       </c>
       <c r="N18">
-        <v>20.06747825672864</v>
+        <v>12.48664574008132</v>
       </c>
       <c r="O18">
-        <v>26.29077375187997</v>
+        <v>17.42994973680854</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.40850475611762</v>
+        <v>14.86143325170666</v>
       </c>
       <c r="C19">
-        <v>4.449538530390309</v>
+        <v>7.340303199619584</v>
       </c>
       <c r="D19">
-        <v>8.931837853289174</v>
+        <v>7.193959887992422</v>
       </c>
       <c r="E19">
-        <v>13.63071132557144</v>
+        <v>9.82619146918679</v>
       </c>
       <c r="F19">
-        <v>34.73070994295995</v>
+        <v>24.83949262067346</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.1428697273335</v>
+        <v>6.019121357387526</v>
       </c>
       <c r="K19">
-        <v>10.59223058435555</v>
+        <v>12.75760008732289</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.58377515089673</v>
+        <v>12.55483038072034</v>
       </c>
       <c r="N19">
-        <v>20.07231626980418</v>
+        <v>12.50426865608501</v>
       </c>
       <c r="O19">
-        <v>26.29501443281083</v>
+        <v>17.42176483064838</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.49946846048265</v>
+        <v>15.15010436801377</v>
       </c>
       <c r="C20">
-        <v>4.510836298617345</v>
+        <v>7.457462856131293</v>
       </c>
       <c r="D20">
-        <v>8.946901863384788</v>
+        <v>7.291557196568633</v>
       </c>
       <c r="E20">
-        <v>13.63728323752571</v>
+        <v>9.91862419574543</v>
       </c>
       <c r="F20">
-        <v>34.72288864995502</v>
+        <v>24.98784744358047</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.13716655900162</v>
+        <v>6.023592150038922</v>
       </c>
       <c r="K20">
-        <v>10.65323780581659</v>
+        <v>12.98755317162772</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.61063912979161</v>
+        <v>12.72706782385018</v>
       </c>
       <c r="N20">
-        <v>20.05065925969363</v>
+        <v>12.42510722499701</v>
       </c>
       <c r="O20">
-        <v>26.27626104081032</v>
+        <v>17.45962760102976</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.80202714924935</v>
+        <v>16.08569990152072</v>
       </c>
       <c r="C21">
-        <v>4.71013598581712</v>
+        <v>7.838941079635574</v>
       </c>
       <c r="D21">
-        <v>8.998915043406388</v>
+        <v>7.613677381249893</v>
       </c>
       <c r="E21">
-        <v>13.66194449987866</v>
+        <v>10.22958523301459</v>
       </c>
       <c r="F21">
-        <v>34.70513816156951</v>
+        <v>25.50663234881432</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.11932219877144</v>
+        <v>6.041961856840854</v>
       </c>
       <c r="K21">
-        <v>10.85749509910929</v>
+        <v>13.73403573858011</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.70331089094392</v>
+        <v>13.29547837912783</v>
       </c>
       <c r="N21">
-        <v>19.97989506480246</v>
+        <v>12.16152768062805</v>
       </c>
       <c r="O21">
-        <v>26.21903470460352</v>
+        <v>17.60527640816091</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.99713775677318</v>
+        <v>16.67185864791198</v>
       </c>
       <c r="C22">
-        <v>4.83535416869263</v>
+        <v>8.079163766468058</v>
       </c>
       <c r="D22">
-        <v>9.033915399823227</v>
+        <v>7.819647381371066</v>
       </c>
       <c r="E22">
-        <v>13.6799682838295</v>
+        <v>10.43285777183637</v>
       </c>
       <c r="F22">
-        <v>34.69988897490124</v>
+        <v>25.86085770508823</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.10864028853763</v>
+        <v>6.056534687139257</v>
       </c>
       <c r="K22">
-        <v>10.99023930195388</v>
+        <v>14.20254401489869</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.76560958579149</v>
+        <v>13.68375421698321</v>
       </c>
       <c r="N22">
-        <v>19.93513159891778</v>
+        <v>11.99089299398893</v>
       </c>
       <c r="O22">
-        <v>26.1859493137072</v>
+        <v>17.71469836840321</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.89326541309087</v>
+        <v>16.36131350576142</v>
       </c>
       <c r="C23">
-        <v>4.768988169714834</v>
+        <v>7.951785800903599</v>
       </c>
       <c r="D23">
-        <v>9.015145338402807</v>
+        <v>7.710147860264825</v>
       </c>
       <c r="E23">
-        <v>13.67017537276748</v>
+        <v>10.32437921460013</v>
       </c>
       <c r="F23">
-        <v>34.70210974489471</v>
+        <v>25.67041255907396</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.11425181806766</v>
+        <v>6.048517373211693</v>
       </c>
       <c r="K23">
-        <v>10.91947332780525</v>
+        <v>13.95425590883217</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.73220537699982</v>
+        <v>13.46569975059319</v>
       </c>
       <c r="N23">
-        <v>19.95888719990926</v>
+        <v>12.08182494601972</v>
       </c>
       <c r="O23">
-        <v>26.20321242371322</v>
+        <v>17.65496447282103</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.49448380219082</v>
+        <v>15.13438161100862</v>
       </c>
       <c r="C24">
-        <v>4.507494928053963</v>
+        <v>7.451074649557824</v>
       </c>
       <c r="D24">
-        <v>8.946069260285974</v>
+        <v>7.286218755710336</v>
       </c>
       <c r="E24">
-        <v>13.63691258974044</v>
+        <v>9.913546041538277</v>
       </c>
       <c r="F24">
-        <v>34.72328606854605</v>
+        <v>24.97962407774688</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.13747478939421</v>
+        <v>6.023334219471523</v>
       </c>
       <c r="K24">
-        <v>10.64988972879181</v>
+        <v>12.97502379717698</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.60915464809843</v>
+        <v>12.71764695206511</v>
       </c>
       <c r="N24">
-        <v>20.05184101857312</v>
+        <v>12.42944501600232</v>
       </c>
       <c r="O24">
-        <v>26.27726914866744</v>
+        <v>17.45748027948184</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.05532522304545</v>
+        <v>13.70063357267745</v>
       </c>
       <c r="C25">
-        <v>4.204352550518693</v>
+        <v>6.872193149944253</v>
       </c>
       <c r="D25">
-        <v>8.876116895507717</v>
+        <v>6.811030138492702</v>
       </c>
       <c r="E25">
-        <v>13.609324425221</v>
+        <v>9.472295659523198</v>
       </c>
       <c r="F25">
-        <v>34.77341839042774</v>
+        <v>24.29946127342557</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.16674370238564</v>
+        <v>6.006730086476467</v>
       </c>
       <c r="K25">
-        <v>10.35728600780902</v>
+        <v>11.83496985128387</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.48428168940532</v>
+        <v>11.87889893796809</v>
       </c>
       <c r="N25">
-        <v>20.15852114709146</v>
+        <v>12.81237811556836</v>
       </c>
       <c r="O25">
-        <v>26.37564078331037</v>
+        <v>17.30233428441252</v>
       </c>
     </row>
   </sheetData>
